--- a/CNR.xlsx
+++ b/CNR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\TEG-NAS\TEG_Home\H_drive_copy\My Papers\PBI Optimization 2025\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C487923-5BB8-4B48-849F-803968FDCC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC02FD6-5516-4754-83D3-79566CAB331E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="315" windowWidth="42210" windowHeight="30690" xr2:uid="{3222188A-DE0C-4728-A84D-656DCA81D6A1}"/>
+    <workbookView xWindow="8895" yWindow="420" windowWidth="45315" windowHeight="30690" xr2:uid="{3222188A-DE0C-4728-A84D-656DCA81D6A1}"/>
   </bookViews>
   <sheets>
     <sheet name="M-Optim" sheetId="1" r:id="rId1"/>
@@ -1089,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1156,11 +1156,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4993,7 +4991,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="2000" b="0" baseline="0">
+                  <a:rPr lang="en-AU" sz="2000" b="0" i="1" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -8134,7 +8132,7 @@
   <dimension ref="A1:AB218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11025,7 +11023,7 @@
       <c r="A59" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="38">
+      <c r="B59">
         <f>EXP(-$B$20*B52)</f>
         <v>5.5900761767232833E-2</v>
       </c>
@@ -17834,28 +17832,28 @@
         <v>103.84983053793347</v>
       </c>
       <c r="M3" s="2">
-        <f>$B$29*POWER($D$23/D3,3)</f>
+        <f t="shared" ref="M3:M43" si="0">$B$29*POWER($D$23/D3,3)</f>
         <v>0.3402</v>
       </c>
       <c r="N3" s="2">
-        <f>M3/$B$26*D3/$D$25</f>
+        <f t="shared" ref="N3:N43" si="1">M3/$B$26*D3/$D$25</f>
         <v>7.7827598828696924</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K3*$B$22*EXP(-K3*$B$22-J3*$B$21/2)*$B$3*L3*$B$14*E3/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" ref="P3:P43" si="2">1/SQRT(2*PI()*EXP(1))*K3*$B$22*EXP(-K3*$B$22-J3*$B$21/2)*$B$3*L3*$B$14*E3/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
         <v>2.463829063712276E-4</v>
       </c>
       <c r="Q3" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K3*$B$22*EXP(-K3*$B$22-J3*$B$21/2)*$B$3*L3*$B$16*E3/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" ref="Q3:Q43" si="3">1/SQRT(2*PI()*EXP(1))*K3*$B$22*EXP(-K3*$B$22-J3*$B$21/2)*$B$3*L3*$B$16*E3/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
         <v>2.8917953253247144E-4</v>
       </c>
       <c r="R3" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K3*$B$22*EXP(-K3*$B$22-J3*$B$21/2)*$B$3*L3*$B$18*E3/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" ref="R3:R43" si="4">1/SQRT(2*PI()*EXP(1))*K3*$B$22*EXP(-K3*$B$22-J3*$B$21/2)*$B$3*L3*$B$18*E3/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
         <v>2.7837727641986715E-4</v>
       </c>
       <c r="T3" s="2">
-        <f>EXP(-$B$21*J3)</f>
+        <f t="shared" ref="T3:T43" si="5">EXP(-$B$21*J3)</f>
         <v>3.1676057637080587E-11</v>
       </c>
       <c r="V3" s="2"/>
@@ -17888,40 +17886,40 @@
         <v>109.72</v>
       </c>
       <c r="J4" s="22">
-        <f t="shared" ref="J4:J43" si="0">F4/10000</f>
+        <f t="shared" ref="J4:J43" si="6">F4/10000</f>
         <v>2.1494E-4</v>
       </c>
       <c r="K4" s="22">
-        <f t="shared" ref="K4:K43" si="1">(H4-F4)/10000</f>
+        <f t="shared" ref="K4:K43" si="7">(H4-F4)/10000</f>
         <v>1.7265000000000002E-4</v>
       </c>
       <c r="L4" s="23">
-        <f t="shared" ref="L4:L43" si="2">2*(I4-G4)/(H4-F4)*10</f>
+        <f t="shared" ref="L4:L43" si="8">2*(I4-G4)/(H4-F4)*10</f>
         <v>125.58355053576592</v>
       </c>
       <c r="M4" s="2">
-        <f>$B$29*POWER($D$23/D4,3)</f>
+        <f t="shared" si="0"/>
         <v>0.25559729526671671</v>
       </c>
       <c r="N4" s="2">
-        <f>M4/$B$26*D4/$D$25</f>
+        <f t="shared" si="1"/>
         <v>6.4320329610493321</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K4*$B$22*EXP(-K4*$B$22-J4*$B$21/2)*$B$3*L4*$B$14*E4/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>4.6607918624910726E-3</v>
       </c>
       <c r="Q4" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K4*$B$22*EXP(-K4*$B$22-J4*$B$21/2)*$B$3*L4*$B$16*E4/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>5.4703698072120447E-3</v>
       </c>
       <c r="R4" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K4*$B$22*EXP(-K4*$B$22-J4*$B$21/2)*$B$3*L4*$B$18*E4/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>5.2660250004732513E-3</v>
       </c>
       <c r="T4" s="2">
-        <f>EXP(-$B$21*J4)</f>
+        <f t="shared" si="5"/>
         <v>9.3785562845628344E-9</v>
       </c>
       <c r="V4" s="2"/>
@@ -17954,40 +17952,40 @@
         <v>100.54</v>
       </c>
       <c r="J5" s="22">
+        <f t="shared" si="6"/>
+        <v>1.6954000000000001E-4</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" si="7"/>
+        <v>1.3260999999999999E-4</v>
+      </c>
+      <c r="L5" s="23">
+        <f t="shared" si="8"/>
+        <v>149.73229771510461</v>
+      </c>
+      <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6954000000000001E-4</v>
-      </c>
-      <c r="K5" s="22">
+        <v>0.19687499999999999</v>
+      </c>
+      <c r="N5" s="2">
         <f t="shared" si="1"/>
-        <v>1.3260999999999999E-4</v>
-      </c>
-      <c r="L5" s="23">
-        <f t="shared" si="2"/>
-        <v>149.73229771510461</v>
-      </c>
-      <c r="M5" s="2">
-        <f>$B$29*POWER($D$23/D5,3)</f>
-        <v>0.19687499999999999</v>
-      </c>
-      <c r="N5" s="2">
-        <f>M5/$B$26*D5/$D$25</f>
         <v>5.4046943631039532</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K5*$B$22*EXP(-K5*$B$22-J5*$B$21/2)*$B$3*L5*$B$14*E5/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>3.3669682033308612E-2</v>
       </c>
       <c r="Q5" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K5*$B$22*EXP(-K5*$B$22-J5*$B$21/2)*$B$3*L5*$B$16*E5/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>3.9518094231094626E-2</v>
       </c>
       <c r="R5" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K5*$B$22*EXP(-K5*$B$22-J5*$B$21/2)*$B$3*L5*$B$18*E5/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>3.8041902015041519E-2</v>
       </c>
       <c r="T5" s="2">
-        <f>EXP(-$B$21*J5)</f>
+        <f t="shared" si="5"/>
         <v>4.6536676514753266E-7</v>
       </c>
       <c r="V5" s="2"/>
@@ -18021,40 +18019,40 @@
         <v>92.772999999999996</v>
       </c>
       <c r="J6" s="22">
+        <f t="shared" si="6"/>
+        <v>1.3726999999999999E-4</v>
+      </c>
+      <c r="K6" s="22">
+        <f t="shared" si="7"/>
+        <v>1.0390999999999999E-4</v>
+      </c>
+      <c r="L6" s="23">
+        <f t="shared" si="8"/>
+        <v>176.15243961120203</v>
+      </c>
+      <c r="M6" s="2">
         <f t="shared" si="0"/>
-        <v>1.3726999999999999E-4</v>
-      </c>
-      <c r="K6" s="22">
+        <v>0.15484751934456073</v>
+      </c>
+      <c r="N6" s="2">
         <f t="shared" si="1"/>
-        <v>1.0390999999999999E-4</v>
-      </c>
-      <c r="L6" s="23">
-        <f t="shared" si="2"/>
-        <v>176.15243961120203</v>
-      </c>
-      <c r="M6" s="2">
-        <f>$B$29*POWER($D$23/D6,3)</f>
-        <v>0.15484751934456073</v>
-      </c>
-      <c r="N6" s="2">
-        <f>M6/$B$26*D6/$D$25</f>
         <v>4.6051833626447873</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K6*$B$22*EXP(-K6*$B$22-J6*$B$21/2)*$B$3*L6*$B$14*E6/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>0.13245970269558308</v>
       </c>
       <c r="Q6" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K6*$B$22*EXP(-K6*$B$22-J6*$B$21/2)*$B$3*L6*$B$16*E6/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>0.15546790753082879</v>
       </c>
       <c r="R6" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K6*$B$22*EXP(-K6*$B$22-J6*$B$21/2)*$B$3*L6*$B$18*E6/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>0.14966042821259556</v>
       </c>
       <c r="T6" s="2">
-        <f>EXP(-$B$21*J6)</f>
+        <f t="shared" si="5"/>
         <v>7.4654861886861816E-6</v>
       </c>
       <c r="V6" s="2"/>
@@ -18087,40 +18085,40 @@
         <v>86.122</v>
       </c>
       <c r="J7" s="22">
+        <f t="shared" si="6"/>
+        <v>1.1364E-4</v>
+      </c>
+      <c r="K7" s="22">
+        <f t="shared" si="7"/>
+        <v>8.2809999999999988E-5</v>
+      </c>
+      <c r="L7" s="23">
+        <f t="shared" si="8"/>
+        <v>205.02354788069087</v>
+      </c>
+      <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>1.1364E-4</v>
-      </c>
-      <c r="K7" s="22">
+        <v>0.12397959183673467</v>
+      </c>
+      <c r="N7" s="2">
         <f t="shared" si="1"/>
-        <v>8.2809999999999988E-5</v>
-      </c>
-      <c r="L7" s="23">
-        <f t="shared" si="2"/>
-        <v>205.02354788069087</v>
-      </c>
-      <c r="M7" s="2">
-        <f>$B$29*POWER($D$23/D7,3)</f>
-        <v>0.12397959183673467</v>
-      </c>
-      <c r="N7" s="2">
-        <f>M7/$B$26*D7/$D$25</f>
         <v>3.9707958586069854</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K7*$B$22*EXP(-K7*$B$22-J7*$B$21/2)*$B$3*L7*$B$14*E7/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>0.35021920888568764</v>
       </c>
       <c r="Q7" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K7*$B$22*EXP(-K7*$B$22-J7*$B$21/2)*$B$3*L7*$B$16*E7/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>0.4110521651078391</v>
       </c>
       <c r="R7" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K7*$B$22*EXP(-K7*$B$22-J7*$B$21/2)*$B$3*L7*$B$18*E7/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>0.39569737590733861</v>
       </c>
       <c r="T7" s="2">
-        <f>EXP(-$B$21*J7)</f>
+        <f t="shared" si="5"/>
         <v>5.6966909146416831E-5</v>
       </c>
       <c r="V7" s="2"/>
@@ -18154,40 +18152,40 @@
         <v>80.361999999999995</v>
       </c>
       <c r="J8" s="22">
+        <f t="shared" si="6"/>
+        <v>9.5795E-5</v>
+      </c>
+      <c r="K8" s="22">
+        <f t="shared" si="7"/>
+        <v>6.6765000000000002E-5</v>
+      </c>
+      <c r="L8" s="23">
+        <f t="shared" si="8"/>
+        <v>237.13023290646288</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>9.5795E-5</v>
-      </c>
-      <c r="K8" s="22">
+        <v>0.1008</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="1"/>
-        <v>6.6765000000000002E-5</v>
-      </c>
-      <c r="L8" s="23">
-        <f t="shared" si="2"/>
-        <v>237.13023290646288</v>
-      </c>
-      <c r="M8" s="2">
-        <f>$B$29*POWER($D$23/D8,3)</f>
-        <v>0.1008</v>
-      </c>
-      <c r="N8" s="2">
-        <f>M8/$B$26*D8/$D$25</f>
         <v>3.4590043923865297</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K8*$B$22*EXP(-K8*$B$22-J8*$B$21/2)*$B$3*L8*$B$14*E8/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>0.71140452346384597</v>
       </c>
       <c r="Q8" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K8*$B$22*EXP(-K8*$B$22-J8*$B$21/2)*$B$3*L8*$B$16*E8/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>0.83497524469816398</v>
       </c>
       <c r="R8" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K8*$B$22*EXP(-K8*$B$22-J8*$B$21/2)*$B$3*L8*$B$18*E8/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>0.80378487530401899</v>
       </c>
       <c r="T8" s="2">
-        <f>EXP(-$B$21*J8)</f>
+        <f t="shared" si="5"/>
         <v>2.6431473152890741E-4</v>
       </c>
       <c r="V8" s="2"/>
@@ -18220,40 +18218,40 @@
         <v>75.325000000000003</v>
       </c>
       <c r="J9" s="22">
+        <f t="shared" si="6"/>
+        <v>8.2307999999999999E-5</v>
+      </c>
+      <c r="K9" s="22">
+        <f t="shared" si="7"/>
+        <v>5.4902000000000004E-5</v>
+      </c>
+      <c r="L9" s="23">
+        <f t="shared" si="8"/>
+        <v>270.15409274707645</v>
+      </c>
+      <c r="M9" s="2">
         <f t="shared" si="0"/>
-        <v>8.2307999999999999E-5</v>
-      </c>
-      <c r="K9" s="22">
+        <v>8.3056640624999997E-2</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" si="1"/>
-        <v>5.4902000000000004E-5</v>
-      </c>
-      <c r="L9" s="23">
-        <f t="shared" si="2"/>
-        <v>270.15409274707645</v>
-      </c>
-      <c r="M9" s="2">
-        <f>$B$29*POWER($D$23/D9,3)</f>
-        <v>8.3056640624999997E-2</v>
-      </c>
-      <c r="N9" s="2">
-        <f>M9/$B$26*D9/$D$25</f>
         <v>3.0401405792459735</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K9*$B$22*EXP(-K9*$B$22-J9*$B$21/2)*$B$3*L9*$B$14*E9/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>1.1840694814955304</v>
       </c>
       <c r="Q9" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K9*$B$22*EXP(-K9*$B$22-J9*$B$21/2)*$B$3*L9*$B$16*E9/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>1.3897419434972196</v>
       </c>
       <c r="R9" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K9*$B$22*EXP(-K9*$B$22-J9*$B$21/2)*$B$3*L9*$B$18*E9/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>1.3378283510219304</v>
       </c>
       <c r="T9" s="2">
-        <f>EXP(-$B$21*J9)</f>
+        <f t="shared" si="5"/>
         <v>8.4304687207134945E-4</v>
       </c>
       <c r="V9" s="2"/>
@@ -18287,40 +18285,40 @@
         <v>70.882999999999996</v>
       </c>
       <c r="J10" s="22">
+        <f t="shared" si="6"/>
+        <v>7.1847000000000005E-5</v>
+      </c>
+      <c r="K10" s="22">
+        <f t="shared" si="7"/>
+        <v>4.5823000000000005E-5</v>
+      </c>
+      <c r="L10" s="23">
+        <f t="shared" si="8"/>
+        <v>304.47591820701393</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" si="0"/>
-        <v>7.1847000000000005E-5</v>
-      </c>
-      <c r="K10" s="22">
+        <v>6.9244860573987377E-2</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" si="1"/>
-        <v>4.5823000000000005E-5</v>
-      </c>
-      <c r="L10" s="23">
-        <f t="shared" si="2"/>
-        <v>304.47591820701393</v>
-      </c>
-      <c r="M10" s="2">
-        <f>$B$29*POWER($D$23/D10,3)</f>
-        <v>6.9244860573987377E-2</v>
-      </c>
-      <c r="N10" s="2">
-        <f>M10/$B$26*D10/$D$25</f>
         <v>2.6929964992628692</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K10*$B$22*EXP(-K10*$B$22-J10*$B$21/2)*$B$3*L10*$B$14*E10/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>1.7201069256388541</v>
       </c>
       <c r="Q10" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K10*$B$22*EXP(-K10*$B$22-J10*$B$21/2)*$B$3*L10*$B$16*E10/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>2.0188889074660201</v>
       </c>
       <c r="R10" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K10*$B$22*EXP(-K10*$B$22-J10*$B$21/2)*$B$3*L10*$B$18*E10/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>1.9434736287623144</v>
       </c>
       <c r="T10" s="2">
-        <f>EXP(-$B$21*J10)</f>
+        <f t="shared" si="5"/>
         <v>2.0728267988165358E-3</v>
       </c>
       <c r="V10" s="2"/>
@@ -18351,40 +18349,40 @@
         <v>66.936000000000007</v>
       </c>
       <c r="J11" s="22">
+        <f t="shared" si="6"/>
+        <v>6.3585000000000009E-5</v>
+      </c>
+      <c r="K11" s="22">
+        <f t="shared" si="7"/>
+        <v>3.8765000000000006E-5</v>
+      </c>
+      <c r="L11" s="23">
+        <f t="shared" si="8"/>
+        <v>339.73945569457021</v>
+      </c>
+      <c r="M11" s="2">
         <f t="shared" si="0"/>
-        <v>6.3585000000000009E-5</v>
-      </c>
-      <c r="K11" s="22">
+        <v>5.8333333333333348E-2</v>
+      </c>
+      <c r="N11" s="2">
         <f t="shared" si="1"/>
-        <v>3.8765000000000006E-5</v>
-      </c>
-      <c r="L11" s="23">
-        <f t="shared" si="2"/>
-        <v>339.73945569457021</v>
-      </c>
-      <c r="M11" s="2">
-        <f>$B$29*POWER($D$23/D11,3)</f>
-        <v>5.8333333333333348E-2</v>
-      </c>
-      <c r="N11" s="2">
-        <f>M11/$B$26*D11/$D$25</f>
         <v>2.4020863836017572</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K11*$B$22*EXP(-K11*$B$22-J11*$B$21/2)*$B$3*L11*$B$14*E11/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>2.2661960789029614</v>
       </c>
       <c r="Q11" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K11*$B$22*EXP(-K11*$B$22-J11*$B$21/2)*$B$3*L11*$B$16*E11/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>2.6598335589753717</v>
       </c>
       <c r="R11" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K11*$B$22*EXP(-K11*$B$22-J11*$B$21/2)*$B$3*L11*$B$18*E11/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>2.5604758932743064</v>
       </c>
       <c r="T11" s="2">
-        <f>EXP(-$B$21*J11)</f>
+        <f t="shared" si="5"/>
         <v>4.218355157583363E-3</v>
       </c>
       <c r="V11" s="2"/>
@@ -18415,40 +18413,40 @@
         <v>63.405000000000001</v>
       </c>
       <c r="J12" s="22">
+        <f t="shared" si="6"/>
+        <v>5.6955999999999995E-5</v>
+      </c>
+      <c r="K12" s="22">
+        <f t="shared" si="7"/>
+        <v>3.3170000000000003E-5</v>
+      </c>
+      <c r="L12" s="23">
+        <f t="shared" si="8"/>
+        <v>375.94211637021402</v>
+      </c>
+      <c r="M12" s="2">
         <f t="shared" si="0"/>
-        <v>5.6955999999999995E-5</v>
-      </c>
-      <c r="K12" s="22">
+        <v>4.959906691937601E-2</v>
+      </c>
+      <c r="N12" s="2">
         <f t="shared" si="1"/>
-        <v>3.3170000000000003E-5</v>
-      </c>
-      <c r="L12" s="23">
-        <f t="shared" si="2"/>
-        <v>375.94211637021402</v>
-      </c>
-      <c r="M12" s="2">
-        <f>$B$29*POWER($D$23/D12,3)</f>
-        <v>4.959906691937601E-2</v>
-      </c>
-      <c r="N12" s="2">
-        <f>M12/$B$26*D12/$D$25</f>
         <v>2.1558891642298321</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K12*$B$22*EXP(-K12*$B$22-J12*$B$21/2)*$B$3*L12*$B$14*E12/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>2.7799743815139437</v>
       </c>
       <c r="Q12" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K12*$B$22*EXP(-K12*$B$22-J12*$B$21/2)*$B$3*L12*$B$16*E12/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>3.2628549761775547</v>
       </c>
       <c r="R12" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K12*$B$22*EXP(-K12*$B$22-J12*$B$21/2)*$B$3*L12*$B$18*E12/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>3.1409715399526985</v>
       </c>
       <c r="T12" s="2">
-        <f>EXP(-$B$21*J12)</f>
+        <f t="shared" si="5"/>
         <v>7.4598796321289351E-3</v>
       </c>
       <c r="V12" s="2"/>
@@ -18481,40 +18479,40 @@
         <v>60.228000000000002</v>
       </c>
       <c r="J13" s="22">
+        <f t="shared" si="6"/>
+        <v>5.1566000000000001E-5</v>
+      </c>
+      <c r="K13" s="22">
+        <f t="shared" si="7"/>
+        <v>2.8683000000000003E-5</v>
+      </c>
+      <c r="L13" s="23">
+        <f t="shared" si="8"/>
+        <v>412.8577903287661</v>
+      </c>
+      <c r="M13" s="2">
         <f t="shared" si="0"/>
-        <v>5.1566000000000001E-5</v>
-      </c>
-      <c r="K13" s="22">
+        <v>4.2525E-2</v>
+      </c>
+      <c r="N13" s="2">
         <f t="shared" si="1"/>
-        <v>2.8683000000000003E-5</v>
-      </c>
-      <c r="L13" s="23">
-        <f t="shared" si="2"/>
-        <v>412.8577903287661</v>
-      </c>
-      <c r="M13" s="2">
-        <f>$B$29*POWER($D$23/D13,3)</f>
-        <v>4.2525E-2</v>
-      </c>
-      <c r="N13" s="2">
-        <f>M13/$B$26*D13/$D$25</f>
         <v>1.9456899707174231</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K13*$B$22*EXP(-K13*$B$22-J13*$B$21/2)*$B$3*L13*$B$14*E13/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>3.2338720372022771</v>
       </c>
       <c r="Q13" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K13*$B$22*EXP(-K13*$B$22-J13*$B$21/2)*$B$3*L13*$B$16*E13/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>3.7955944986660564</v>
       </c>
       <c r="R13" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K13*$B$22*EXP(-K13*$B$22-J13*$B$21/2)*$B$3*L13*$B$18*E13/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>3.6538106610786625</v>
       </c>
       <c r="T13" s="2">
-        <f>EXP(-$B$21*J13)</f>
+        <f t="shared" si="5"/>
         <v>1.185890757130802E-2</v>
       </c>
       <c r="V13" s="2"/>
@@ -18548,40 +18546,40 @@
         <v>57.354999999999997</v>
       </c>
       <c r="J14" s="22">
+        <f t="shared" si="6"/>
+        <v>4.7127000000000005E-5</v>
+      </c>
+      <c r="K14" s="22">
+        <f t="shared" si="7"/>
+        <v>2.5032999999999999E-5</v>
+      </c>
+      <c r="L14" s="23">
+        <f t="shared" si="8"/>
+        <v>450.36551751687716</v>
+      </c>
+      <c r="M14" s="2">
         <f t="shared" si="0"/>
-        <v>4.7127000000000005E-5</v>
-      </c>
-      <c r="K14" s="22">
+        <v>3.6734693877551024E-2</v>
+      </c>
+      <c r="N14" s="2">
         <f t="shared" si="1"/>
-        <v>2.5032999999999999E-5</v>
-      </c>
-      <c r="L14" s="23">
-        <f t="shared" si="2"/>
-        <v>450.36551751687716</v>
-      </c>
-      <c r="M14" s="2">
-        <f>$B$29*POWER($D$23/D14,3)</f>
-        <v>3.6734693877551024E-2</v>
-      </c>
-      <c r="N14" s="2">
-        <f>M14/$B$26*D14/$D$25</f>
         <v>1.7647981593808828</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K14*$B$22*EXP(-K14*$B$22-J14*$B$21/2)*$B$3*L14*$B$14*E14/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>3.614175252955655</v>
       </c>
       <c r="Q14" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K14*$B$22*EXP(-K14*$B$22-J14*$B$21/2)*$B$3*L14*$B$16*E14/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>4.2419562522954077</v>
       </c>
       <c r="R14" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K14*$B$22*EXP(-K14*$B$22-J14*$B$21/2)*$B$3*L14*$B$18*E14/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>4.0834986413626133</v>
       </c>
-      <c r="T14" s="37">
-        <f>EXP(-$B$21*J14)</f>
+      <c r="T14" s="2">
+        <f t="shared" si="5"/>
         <v>1.7371540765255815E-2</v>
       </c>
       <c r="V14" s="2"/>
@@ -18610,40 +18608,40 @@
         <v>54.743000000000002</v>
       </c>
       <c r="J15" s="22">
+        <f t="shared" si="6"/>
+        <v>4.3433999999999998E-5</v>
+      </c>
+      <c r="K15" s="22">
+        <f t="shared" si="7"/>
+        <v>2.2030999999999996E-5</v>
+      </c>
+      <c r="L15" s="23">
+        <f t="shared" si="8"/>
+        <v>488.31192410694081</v>
+      </c>
+      <c r="M15" s="2">
         <f t="shared" si="0"/>
-        <v>4.3433999999999998E-5</v>
-      </c>
-      <c r="K15" s="22">
+        <v>3.1949661908339588E-2</v>
+      </c>
+      <c r="N15" s="2">
         <f t="shared" si="1"/>
-        <v>2.2030999999999996E-5</v>
-      </c>
-      <c r="L15" s="23">
-        <f t="shared" si="2"/>
-        <v>488.31192410694081</v>
-      </c>
-      <c r="M15" s="2">
-        <f>$B$29*POWER($D$23/D15,3)</f>
-        <v>3.1949661908339588E-2</v>
-      </c>
-      <c r="N15" s="2">
-        <f>M15/$B$26*D15/$D$25</f>
         <v>1.608008240262333</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K15*$B$22*EXP(-K15*$B$22-J15*$B$21/2)*$B$3*L15*$B$14*E15/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>3.9169102533957725</v>
       </c>
       <c r="Q15" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K15*$B$22*EXP(-K15*$B$22-J15*$B$21/2)*$B$3*L15*$B$16*E15/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>4.5972762182697773</v>
       </c>
       <c r="R15" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K15*$B$22*EXP(-K15*$B$22-J15*$B$21/2)*$B$3*L15*$B$18*E15/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>4.4255456856998112</v>
       </c>
       <c r="T15" s="2">
-        <f>EXP(-$B$21*J15)</f>
+        <f t="shared" si="5"/>
         <v>2.3865437414240444E-2</v>
       </c>
       <c r="V15" s="2"/>
@@ -18677,40 +18675,40 @@
         <v>52.36</v>
       </c>
       <c r="J16" s="22">
+        <f t="shared" si="6"/>
+        <v>4.0330999999999997E-5</v>
+      </c>
+      <c r="K16" s="22">
+        <f t="shared" si="7"/>
+        <v>1.9538000000000005E-5</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="8"/>
+        <v>526.56361961306141</v>
+      </c>
+      <c r="M16" s="2">
         <f t="shared" si="0"/>
-        <v>4.0330999999999997E-5</v>
-      </c>
-      <c r="K16" s="22">
+        <v>2.7960877784170297E-2</v>
+      </c>
+      <c r="N16" s="2">
         <f t="shared" si="1"/>
-        <v>1.9538000000000005E-5</v>
-      </c>
-      <c r="L16" s="23">
-        <f t="shared" si="2"/>
-        <v>526.56361961306141</v>
-      </c>
-      <c r="M16" s="2">
-        <f>$B$29*POWER($D$23/D16,3)</f>
-        <v>2.7960877784170297E-2</v>
-      </c>
-      <c r="N16" s="2">
-        <f>M16/$B$26*D16/$D$25</f>
         <v>1.4712211498808494</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K16*$B$22*EXP(-K16*$B$22-J16*$B$21/2)*$B$3*L16*$B$14*E16/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>4.1457092487458391</v>
       </c>
       <c r="Q16" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K16*$B$22*EXP(-K16*$B$22-J16*$B$21/2)*$B$3*L16*$B$16*E16/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>4.8658175204798475</v>
       </c>
       <c r="R16" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K16*$B$22*EXP(-K16*$B$22-J16*$B$21/2)*$B$3*L16*$B$18*E16/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>4.6840556696561952</v>
       </c>
       <c r="T16" s="2">
-        <f>EXP(-$B$21*J16)</f>
+        <f t="shared" si="5"/>
         <v>3.116480081643656E-2</v>
       </c>
       <c r="V16" s="2"/>
@@ -18739,40 +18737,40 @@
         <v>50.174999999999997</v>
       </c>
       <c r="J17" s="22">
+        <f t="shared" si="6"/>
+        <v>3.7702999999999995E-5</v>
+      </c>
+      <c r="K17" s="22">
+        <f t="shared" si="7"/>
+        <v>1.7446000000000005E-5</v>
+      </c>
+      <c r="L17" s="23">
+        <f t="shared" si="8"/>
+        <v>564.94325346784319</v>
+      </c>
+      <c r="M17" s="2">
         <f t="shared" si="0"/>
-        <v>3.7702999999999995E-5</v>
-      </c>
-      <c r="K17" s="22">
+        <v>2.4609374999999999E-2</v>
+      </c>
+      <c r="N17" s="2">
         <f t="shared" si="1"/>
-        <v>1.7446000000000005E-5</v>
-      </c>
-      <c r="L17" s="23">
-        <f t="shared" si="2"/>
-        <v>564.94325346784319</v>
-      </c>
-      <c r="M17" s="2">
-        <f>$B$29*POWER($D$23/D17,3)</f>
-        <v>2.4609374999999999E-2</v>
-      </c>
-      <c r="N17" s="2">
-        <f>M17/$B$26*D17/$D$25</f>
         <v>1.3511735907759883</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K17*$B$22*EXP(-K17*$B$22-J17*$B$21/2)*$B$3*L17*$B$14*E17/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>4.306306207760457</v>
       </c>
       <c r="Q17" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K17*$B$22*EXP(-K17*$B$22-J17*$B$21/2)*$B$3*L17*$B$16*E17/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>5.0543101160822799</v>
       </c>
       <c r="R17" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K17*$B$22*EXP(-K17*$B$22-J17*$B$21/2)*$B$3*L17*$B$18*E17/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>4.8655071538936729</v>
       </c>
       <c r="T17" s="2">
-        <f>EXP(-$B$21*J17)</f>
+        <f t="shared" si="5"/>
         <v>3.9067748457464149E-2</v>
       </c>
       <c r="V17" s="2"/>
@@ -18806,40 +18804,40 @@
         <v>48.164999999999999</v>
       </c>
       <c r="J18" s="22">
+        <f t="shared" si="6"/>
+        <v>3.5460000000000003E-5</v>
+      </c>
+      <c r="K18" s="22">
+        <f t="shared" si="7"/>
+        <v>1.5674999999999995E-5</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="8"/>
+        <v>603.50877192982443</v>
+      </c>
+      <c r="M18" s="2">
         <f t="shared" si="0"/>
-        <v>3.5460000000000003E-5</v>
-      </c>
-      <c r="K18" s="22">
+        <v>2.1772799999999998E-2</v>
+      </c>
+      <c r="N18" s="2">
         <f t="shared" si="1"/>
-        <v>1.5674999999999995E-5</v>
-      </c>
-      <c r="L18" s="23">
-        <f t="shared" si="2"/>
-        <v>603.50877192982443</v>
-      </c>
-      <c r="M18" s="2">
-        <f>$B$29*POWER($D$23/D18,3)</f>
-        <v>2.1772799999999998E-2</v>
-      </c>
-      <c r="N18" s="2">
-        <f>M18/$B$26*D18/$D$25</f>
         <v>1.2452415812591509</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K18*$B$22*EXP(-K18*$B$22-J18*$B$21/2)*$B$3*L18*$B$14*E18/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>4.4085881466453429</v>
       </c>
       <c r="Q18" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K18*$B$22*EXP(-K18*$B$22-J18*$B$21/2)*$B$3*L18*$B$16*E18/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>5.1743583925998111</v>
       </c>
       <c r="R18" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K18*$B$22*EXP(-K18*$B$22-J18*$B$21/2)*$B$3*L18*$B$18*E18/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>4.9810710458579033</v>
       </c>
       <c r="T18" s="2">
-        <f>EXP(-$B$21*J18)</f>
+        <f t="shared" si="5"/>
         <v>4.7379766902889343E-2</v>
       </c>
       <c r="V18" s="2"/>
@@ -18868,40 +18866,40 @@
         <v>46.31</v>
       </c>
       <c r="J19" s="26">
+        <f t="shared" si="6"/>
+        <v>3.3532000000000004E-5</v>
+      </c>
+      <c r="K19" s="26">
+        <f t="shared" si="7"/>
+        <v>1.4166000000000001E-5</v>
+      </c>
+      <c r="L19" s="27">
+        <f t="shared" si="8"/>
+        <v>641.95962162925366</v>
+      </c>
+      <c r="M19" s="2">
         <f t="shared" si="0"/>
-        <v>3.3532000000000004E-5</v>
-      </c>
-      <c r="K19" s="26">
+        <v>1.9355939918070091E-2</v>
+      </c>
+      <c r="N19" s="2">
         <f t="shared" si="1"/>
-        <v>1.4166000000000001E-5</v>
-      </c>
-      <c r="L19" s="27">
-        <f t="shared" si="2"/>
-        <v>641.95962162925366</v>
-      </c>
-      <c r="M19" s="2">
-        <f>$B$29*POWER($D$23/D19,3)</f>
-        <v>1.9355939918070091E-2</v>
-      </c>
-      <c r="N19" s="2">
-        <f>M19/$B$26*D19/$D$25</f>
         <v>1.1512958406611968</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K19*$B$22*EXP(-K19*$B$22-J19*$B$21/2)*$B$3*L19*$B$14*E19/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>4.4607871845376899</v>
       </c>
       <c r="Q19" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K19*$B$22*EXP(-K19*$B$22-J19*$B$21/2)*$B$3*L19*$B$16*E19/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>5.2356243854345967</v>
       </c>
       <c r="R19" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K19*$B$22*EXP(-K19*$B$22-J19*$B$21/2)*$B$3*L19*$B$18*E19/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>5.0400484571329978</v>
       </c>
       <c r="T19" s="2">
-        <f>EXP(-$B$21*J19)</f>
+        <f t="shared" si="5"/>
         <v>5.5924539828955622E-2</v>
       </c>
       <c r="V19" s="2"/>
@@ -18930,41 +18928,41 @@
         <v>44.593000000000004</v>
       </c>
       <c r="J20" s="22">
+        <f t="shared" si="6"/>
+        <v>3.1866000000000003E-5</v>
+      </c>
+      <c r="K20" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2867000000000001E-5</v>
+      </c>
+      <c r="L20" s="23">
+        <f t="shared" si="8"/>
+        <v>680.50050516825991</v>
+      </c>
+      <c r="M20" s="2">
         <f t="shared" si="0"/>
-        <v>3.1866000000000003E-5</v>
-      </c>
-      <c r="K20" s="22">
+        <v>1.7283950617283952E-2</v>
+      </c>
+      <c r="N20" s="2">
         <f t="shared" si="1"/>
-        <v>1.2867000000000001E-5</v>
-      </c>
-      <c r="L20" s="23">
-        <f t="shared" si="2"/>
-        <v>680.50050516825991</v>
-      </c>
-      <c r="M20" s="2">
-        <f>$B$29*POWER($D$23/D20,3)</f>
-        <v>1.7283950617283952E-2</v>
-      </c>
-      <c r="N20" s="2">
-        <f>M20/$B$26*D20/$D$25</f>
         <v>1.0675939482674477</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="28">
-        <f>1/SQRT(2*PI()*EXP(1))*K20*$B$22*EXP(-K20*$B$22-J20*$B$21/2)*$B$3*L20*$B$14*E20/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>4.4720291112733195</v>
       </c>
       <c r="Q20" s="28">
-        <f>1/SQRT(2*PI()*EXP(1))*K20*$B$22*EXP(-K20*$B$22-J20*$B$21/2)*$B$3*L20*$B$16*E20/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>5.2488190309806475</v>
       </c>
       <c r="R20" s="28">
-        <f>1/SQRT(2*PI()*EXP(1))*K20*$B$22*EXP(-K20*$B$22-J20*$B$21/2)*$B$3*L20*$B$18*E20/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>5.0527502187627649</v>
       </c>
       <c r="S20" s="12"/>
       <c r="T20" s="7">
-        <f>EXP(-$B$21*J20)</f>
+        <f t="shared" si="5"/>
         <v>6.4539618721932271E-2</v>
       </c>
       <c r="V20" s="2"/>
@@ -18997,40 +18995,40 @@
         <v>42.997999999999998</v>
       </c>
       <c r="J21" s="22">
+        <f t="shared" si="6"/>
+        <v>3.0419000000000001E-5</v>
+      </c>
+      <c r="K21" s="22">
+        <f t="shared" si="7"/>
+        <v>1.1745E-5</v>
+      </c>
+      <c r="L21" s="23">
+        <f t="shared" si="8"/>
+        <v>718.77394636015265</v>
+      </c>
+      <c r="M21" s="2">
         <f t="shared" si="0"/>
-        <v>3.0419000000000001E-5</v>
-      </c>
-      <c r="K21" s="22">
+        <v>1.5497448979591833E-2</v>
+      </c>
+      <c r="N21" s="2">
         <f t="shared" si="1"/>
-        <v>1.1745E-5</v>
-      </c>
-      <c r="L21" s="23">
-        <f t="shared" si="2"/>
-        <v>718.77394636015265</v>
-      </c>
-      <c r="M21" s="2">
-        <f>$B$29*POWER($D$23/D21,3)</f>
-        <v>1.5497448979591833E-2</v>
-      </c>
-      <c r="N21" s="2">
-        <f>M21/$B$26*D21/$D$25</f>
         <v>0.99269896465174634</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K21*$B$22*EXP(-K21*$B$22-J21*$B$21/2)*$B$3*L21*$B$14*E21/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>4.4494730304259331</v>
       </c>
       <c r="Q21" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K21*$B$22*EXP(-K21*$B$22-J21*$B$21/2)*$B$3*L21*$B$16*E21/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>5.2223449666420114</v>
       </c>
       <c r="R21" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K21*$B$22*EXP(-K21*$B$22-J21*$B$21/2)*$B$3*L21*$B$18*E21/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>5.027265088948031</v>
       </c>
       <c r="T21" s="2">
-        <f>EXP(-$B$21*J21)</f>
+        <f t="shared" si="5"/>
         <v>7.3092172302882966E-2</v>
       </c>
       <c r="V21" s="2"/>
@@ -19063,40 +19061,40 @@
         <v>41.514000000000003</v>
       </c>
       <c r="J22" s="22">
+        <f t="shared" si="6"/>
+        <v>2.9154999999999998E-5</v>
+      </c>
+      <c r="K22" s="22">
+        <f t="shared" si="7"/>
+        <v>1.0767999999999999E-5</v>
+      </c>
+      <c r="L22" s="23">
+        <f t="shared" si="8"/>
+        <v>756.87221396731104</v>
+      </c>
+      <c r="M22" s="2">
         <f t="shared" si="0"/>
-        <v>2.9154999999999998E-5</v>
-      </c>
-      <c r="K22" s="22">
+        <v>1.3948911394481123E-2</v>
+      </c>
+      <c r="N22" s="2">
         <f t="shared" si="1"/>
-        <v>1.0767999999999999E-5</v>
-      </c>
-      <c r="L22" s="23">
-        <f t="shared" si="2"/>
-        <v>756.87221396731104</v>
-      </c>
-      <c r="M22" s="2">
-        <f>$B$29*POWER($D$23/D22,3)</f>
-        <v>1.3948911394481123E-2</v>
-      </c>
-      <c r="N22" s="2">
-        <f>M22/$B$26*D22/$D$25</f>
         <v>0.92541734635787098</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K22*$B$22*EXP(-K22*$B$22-J22*$B$21/2)*$B$3*L22*$B$14*E22/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>4.400552182698676</v>
       </c>
       <c r="Q22" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K22*$B$22*EXP(-K22*$B$22-J22*$B$21/2)*$B$3*L22*$B$16*E22/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>5.1649265844773602</v>
       </c>
       <c r="R22" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K22*$B$22*EXP(-K22*$B$22-J22*$B$21/2)*$B$3*L22*$B$18*E22/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>4.9719915614495545</v>
       </c>
       <c r="T22" s="2">
-        <f>EXP(-$B$21*J22)</f>
+        <f t="shared" si="5"/>
         <v>8.1485515374224604E-2</v>
       </c>
       <c r="V22" s="2"/>
@@ -19125,40 +19123,40 @@
         <v>40.128999999999998</v>
       </c>
       <c r="J23" s="22">
+        <f t="shared" si="6"/>
+        <v>2.8048E-5</v>
+      </c>
+      <c r="K23" s="22">
+        <f t="shared" si="7"/>
+        <v>9.9140000000000003E-6</v>
+      </c>
+      <c r="L23" s="23">
+        <f t="shared" si="8"/>
+        <v>794.63385111962884</v>
+      </c>
+      <c r="M23" s="2">
         <f t="shared" si="0"/>
-        <v>2.8048E-5</v>
-      </c>
-      <c r="K23" s="22">
+        <v>1.26E-2</v>
+      </c>
+      <c r="N23" s="2">
         <f t="shared" si="1"/>
-        <v>9.9140000000000003E-6</v>
-      </c>
-      <c r="L23" s="23">
-        <f t="shared" si="2"/>
-        <v>794.63385111962884</v>
-      </c>
-      <c r="M23" s="2">
-        <f>$B$29*POWER($D$23/D23,3)</f>
-        <v>1.26E-2</v>
-      </c>
-      <c r="N23" s="2">
-        <f>M23/$B$26*D23/$D$25</f>
         <v>0.86475109809663242</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K23*$B$22*EXP(-K23*$B$22-J23*$B$21/2)*$B$3*L23*$B$14*E23/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>4.3308144314786299</v>
       </c>
       <c r="Q23" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K23*$B$22*EXP(-K23*$B$22-J23*$B$21/2)*$B$3*L23*$B$16*E23/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>5.0830754098374564</v>
       </c>
       <c r="R23" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K23*$B$22*EXP(-K23*$B$22-J23*$B$21/2)*$B$3*L23*$B$18*E23/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>4.8931979246092112</v>
       </c>
       <c r="T23" s="2">
-        <f>EXP(-$B$21*J23)</f>
+        <f t="shared" si="5"/>
         <v>8.9624370840296688E-2</v>
       </c>
       <c r="V23" s="2"/>
@@ -19187,40 +19185,40 @@
         <v>38.832999999999998</v>
       </c>
       <c r="J24" s="22">
+        <f t="shared" si="6"/>
+        <v>2.7073999999999999E-5</v>
+      </c>
+      <c r="K24" s="22">
+        <f t="shared" si="7"/>
+        <v>9.1600000000000021E-6</v>
+      </c>
+      <c r="L24" s="23">
+        <f t="shared" si="8"/>
+        <v>832.09606986899541</v>
+      </c>
+      <c r="M24" s="2">
         <f t="shared" si="0"/>
-        <v>2.7073999999999999E-5</v>
-      </c>
-      <c r="K24" s="22">
+        <v>1.1419556241818E-2</v>
+      </c>
+      <c r="N24" s="2">
         <f t="shared" si="1"/>
-        <v>9.1600000000000021E-6</v>
-      </c>
-      <c r="L24" s="23">
-        <f t="shared" si="2"/>
-        <v>832.09606986899541</v>
-      </c>
-      <c r="M24" s="2">
-        <f>$B$29*POWER($D$23/D24,3)</f>
-        <v>1.1419556241818E-2</v>
-      </c>
-      <c r="N24" s="2">
-        <f>M24/$B$26*D24/$D$25</f>
         <v>0.80986054972629484</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K24*$B$22*EXP(-K24*$B$22-J24*$B$21/2)*$B$3*L24*$B$14*E24/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>4.2443238680355728</v>
       </c>
       <c r="Q24" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K24*$B$22*EXP(-K24*$B$22-J24*$B$21/2)*$B$3*L24*$B$16*E24/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>4.9815614652489115</v>
       </c>
       <c r="R24" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K24*$B$22*EXP(-K24*$B$22-J24*$B$21/2)*$B$3*L24*$B$18*E24/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>4.7954760175097757</v>
       </c>
       <c r="T24" s="2">
-        <f>EXP(-$B$21*J24)</f>
+        <f t="shared" si="5"/>
         <v>9.7455053208644823E-2</v>
       </c>
       <c r="V24" s="2"/>
@@ -19249,40 +19247,40 @@
         <v>37.619</v>
       </c>
       <c r="J25" s="26">
+        <f t="shared" si="6"/>
+        <v>2.6216000000000001E-5</v>
+      </c>
+      <c r="K25" s="26">
+        <f t="shared" si="7"/>
+        <v>8.494000000000002E-6</v>
+      </c>
+      <c r="L25" s="27">
+        <f t="shared" si="8"/>
+        <v>869.31951966093709</v>
+      </c>
+      <c r="M25" s="2">
         <f t="shared" si="0"/>
-        <v>2.6216000000000001E-5</v>
-      </c>
-      <c r="K25" s="26">
+        <v>1.0382080078125E-2</v>
+      </c>
+      <c r="N25" s="2">
         <f t="shared" si="1"/>
-        <v>8.494000000000002E-6</v>
-      </c>
-      <c r="L25" s="27">
-        <f t="shared" si="2"/>
-        <v>869.31951966093709</v>
-      </c>
-      <c r="M25" s="2">
-        <f>$B$29*POWER($D$23/D25,3)</f>
-        <v>1.0382080078125E-2</v>
-      </c>
-      <c r="N25" s="2">
-        <f>M25/$B$26*D25/$D$25</f>
         <v>0.76003514481149337</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K25*$B$22*EXP(-K25*$B$22-J25*$B$21/2)*$B$3*L25*$B$14*E25/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>4.1467899389872853</v>
       </c>
       <c r="Q25" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K25*$B$22*EXP(-K25*$B$22-J25*$B$21/2)*$B$3*L25*$B$16*E25/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>4.8670859262448269</v>
       </c>
       <c r="R25" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K25*$B$22*EXP(-K25*$B$22-J25*$B$21/2)*$B$3*L25*$B$18*E25/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>4.6852766943226305</v>
       </c>
       <c r="T25" s="2">
-        <f>EXP(-$B$21*J25)</f>
+        <f t="shared" si="5"/>
         <v>0.10491801954703663</v>
       </c>
       <c r="V25" s="2"/>
@@ -19315,40 +19313,40 @@
         <v>36.478000000000002</v>
       </c>
       <c r="J26" s="22">
+        <f t="shared" si="6"/>
+        <v>2.5457E-5</v>
+      </c>
+      <c r="K26" s="22">
+        <f t="shared" si="7"/>
+        <v>7.9019999999999982E-6</v>
+      </c>
+      <c r="L26" s="23">
+        <f t="shared" si="8"/>
+        <v>906.09972158947085</v>
+      </c>
+      <c r="M26" s="2">
         <f t="shared" si="0"/>
-        <v>2.5457E-5</v>
-      </c>
-      <c r="K26" s="22">
+        <v>9.466566491359879E-3</v>
+      </c>
+      <c r="N26" s="2">
         <f t="shared" si="1"/>
-        <v>7.9019999999999982E-6</v>
-      </c>
-      <c r="L26" s="23">
-        <f t="shared" si="2"/>
-        <v>906.09972158947085</v>
-      </c>
-      <c r="M26" s="2">
-        <f>$B$29*POWER($D$23/D26,3)</f>
-        <v>9.466566491359879E-3</v>
-      </c>
-      <c r="N26" s="2">
-        <f>M26/$B$26*D26/$D$25</f>
         <v>0.71467032900548133</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K26*$B$22*EXP(-K26*$B$22-J26*$B$21/2)*$B$3*L26*$B$14*E26/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>4.0404430482065079</v>
       </c>
       <c r="Q26" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K26*$B$22*EXP(-K26*$B$22-J26*$B$21/2)*$B$3*L26*$B$16*E26/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>4.7422666170841072</v>
       </c>
       <c r="R26" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K26*$B$22*EXP(-K26*$B$22-J26*$B$21/2)*$B$3*L26*$B$18*E26/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>4.5651199908917999</v>
       </c>
       <c r="T26" s="2">
-        <f>EXP(-$B$21*J26)</f>
+        <f t="shared" si="5"/>
         <v>0.11199489377735189</v>
       </c>
       <c r="V26" s="2"/>
@@ -19377,40 +19375,40 @@
         <v>35.404000000000003</v>
       </c>
       <c r="J27" s="22">
+        <f t="shared" si="6"/>
+        <v>2.4784999999999997E-5</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" si="7"/>
+        <v>7.374E-6</v>
+      </c>
+      <c r="L27" s="23">
+        <f t="shared" si="8"/>
+        <v>942.2294548413355</v>
+      </c>
+      <c r="M27" s="2">
         <f t="shared" si="0"/>
-        <v>2.4784999999999997E-5</v>
-      </c>
-      <c r="K27" s="22">
+        <v>8.6556075717484221E-3</v>
+      </c>
+      <c r="N27" s="2">
         <f t="shared" si="1"/>
-        <v>7.374E-6</v>
-      </c>
-      <c r="L27" s="23">
-        <f t="shared" si="2"/>
-        <v>942.2294548413355</v>
-      </c>
-      <c r="M27" s="2">
-        <f>$B$29*POWER($D$23/D27,3)</f>
-        <v>8.6556075717484221E-3</v>
-      </c>
-      <c r="N27" s="2">
-        <f>M27/$B$26*D27/$D$25</f>
         <v>0.6732491248157173</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K27*$B$22*EXP(-K27*$B$22-J27*$B$21/2)*$B$3*L27*$B$14*E27/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>3.9274142418799798</v>
       </c>
       <c r="Q27" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K27*$B$22*EXP(-K27*$B$22-J27*$B$21/2)*$B$3*L27*$B$16*E27/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>4.6096047459437424</v>
       </c>
       <c r="R27" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K27*$B$22*EXP(-K27*$B$22-J27*$B$21/2)*$B$3*L27*$B$18*E27/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>4.437413683154853</v>
       </c>
       <c r="T27" s="2">
-        <f>EXP(-$B$21*J27)</f>
+        <f t="shared" si="5"/>
         <v>0.11865798495098331</v>
       </c>
       <c r="V27" s="2"/>
@@ -19439,40 +19437,40 @@
         <v>34.392000000000003</v>
       </c>
       <c r="J28" s="22">
+        <f t="shared" si="6"/>
+        <v>2.4188999999999998E-5</v>
+      </c>
+      <c r="K28" s="22">
+        <f t="shared" si="7"/>
+        <v>6.9000000000000009E-6</v>
+      </c>
+      <c r="L28" s="23">
+        <f t="shared" si="8"/>
+        <v>977.97101449275419</v>
+      </c>
+      <c r="M28" s="2">
         <f t="shared" si="0"/>
-        <v>2.4188999999999998E-5</v>
-      </c>
-      <c r="K28" s="22">
+        <v>7.9346938775510193E-3</v>
+      </c>
+      <c r="N28" s="2">
         <f t="shared" si="1"/>
-        <v>6.9000000000000009E-6</v>
-      </c>
-      <c r="L28" s="23">
-        <f t="shared" si="2"/>
-        <v>977.97101449275419</v>
-      </c>
-      <c r="M28" s="2">
-        <f>$B$29*POWER($D$23/D28,3)</f>
-        <v>7.9346938775510193E-3</v>
-      </c>
-      <c r="N28" s="2">
-        <f>M28/$B$26*D28/$D$25</f>
         <v>0.63532733737711755</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K28*$B$22*EXP(-K28*$B$22-J28*$B$21/2)*$B$3*L28*$B$14*E28/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>3.8105900085866975</v>
       </c>
       <c r="Q28" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K28*$B$22*EXP(-K28*$B$22-J28*$B$21/2)*$B$3*L28*$B$16*E28/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>4.4724881834768864</v>
       </c>
       <c r="R28" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K28*$B$22*EXP(-K28*$B$22-J28*$B$21/2)*$B$3*L28*$B$18*E28/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>4.3054190883877022</v>
       </c>
       <c r="T28" s="2">
-        <f>EXP(-$B$21*J28)</f>
+        <f t="shared" si="5"/>
         <v>0.12489848395434158</v>
       </c>
       <c r="V28" s="2"/>
@@ -19505,40 +19503,40 @@
         <v>33.436</v>
       </c>
       <c r="J29" s="22">
+        <f t="shared" si="6"/>
+        <v>2.366E-5</v>
+      </c>
+      <c r="K29" s="22">
+        <f t="shared" si="7"/>
+        <v>6.472999999999998E-6</v>
+      </c>
+      <c r="L29" s="23">
+        <f t="shared" si="8"/>
+        <v>1013.7494206704773</v>
+      </c>
+      <c r="M29" s="2">
         <f t="shared" si="0"/>
-        <v>2.366E-5</v>
-      </c>
-      <c r="K29" s="22">
+        <v>7.2916666666666685E-3</v>
+      </c>
+      <c r="N29" s="2">
         <f t="shared" si="1"/>
-        <v>6.472999999999998E-6</v>
-      </c>
-      <c r="L29" s="23">
-        <f t="shared" si="2"/>
-        <v>1013.7494206704773</v>
-      </c>
-      <c r="M29" s="2">
-        <f>$B$29*POWER($D$23/D29,3)</f>
-        <v>7.2916666666666685E-3</v>
-      </c>
-      <c r="N29" s="2">
-        <f>M29/$B$26*D29/$D$25</f>
         <v>0.6005215959004393</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K29*$B$22*EXP(-K29*$B$22-J29*$B$21/2)*$B$3*L29*$B$14*E29/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>3.6933888640648767</v>
       </c>
       <c r="Q29" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K29*$B$22*EXP(-K29*$B$22-J29*$B$21/2)*$B$3*L29*$B$16*E29/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>4.3349292404306308</v>
       </c>
       <c r="R29" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K29*$B$22*EXP(-K29*$B$22-J29*$B$21/2)*$B$3*L29*$B$18*E29/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>4.1729986380983561</v>
       </c>
       <c r="T29" s="2">
-        <f>EXP(-$B$21*J29)</f>
+        <f t="shared" si="5"/>
         <v>0.13071184958372503</v>
       </c>
       <c r="V29" s="2"/>
@@ -19567,40 +19565,40 @@
         <v>32.530999999999999</v>
       </c>
       <c r="J30" s="22">
+        <f t="shared" si="6"/>
+        <v>2.319E-5</v>
+      </c>
+      <c r="K30" s="22">
+        <f t="shared" si="7"/>
+        <v>6.0879999999999991E-6</v>
+      </c>
+      <c r="L30" s="23">
+        <f t="shared" si="8"/>
+        <v>1048.291721419185</v>
+      </c>
+      <c r="M30" s="2">
         <f t="shared" si="0"/>
-        <v>2.319E-5</v>
-      </c>
-      <c r="K30" s="22">
+        <v>6.71628531380175E-3</v>
+      </c>
+      <c r="N30" s="2">
         <f t="shared" si="1"/>
-        <v>6.0879999999999991E-6</v>
-      </c>
-      <c r="L30" s="23">
-        <f t="shared" si="2"/>
-        <v>1048.291721419185</v>
-      </c>
-      <c r="M30" s="2">
-        <f>$B$29*POWER($D$23/D30,3)</f>
-        <v>6.71628531380175E-3</v>
-      </c>
-      <c r="N30" s="2">
-        <f>M30/$B$26*D30/$D$25</f>
         <v>0.56849962621400241</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K30*$B$22*EXP(-K30*$B$22-J30*$B$21/2)*$B$3*L30*$B$14*E30/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>3.5732178453846957</v>
       </c>
       <c r="Q30" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K30*$B$22*EXP(-K30*$B$22-J30*$B$21/2)*$B$3*L30*$B$16*E30/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>4.1938845571053749</v>
       </c>
       <c r="R30" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K30*$B$22*EXP(-K30*$B$22-J30*$B$21/2)*$B$3*L30*$B$18*E30/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>4.0372226568117888</v>
       </c>
       <c r="T30" s="2">
-        <f>EXP(-$B$21*J30)</f>
+        <f t="shared" si="5"/>
         <v>0.13610345280889147</v>
       </c>
       <c r="V30" s="2"/>
@@ -19631,40 +19629,40 @@
         <v>31.675000000000001</v>
       </c>
       <c r="J31" s="22">
+        <f t="shared" si="6"/>
+        <v>2.2773999999999999E-5</v>
+      </c>
+      <c r="K31" s="22">
+        <f t="shared" si="7"/>
+        <v>5.7379999999999983E-6</v>
+      </c>
+      <c r="L31" s="23">
+        <f t="shared" si="8"/>
+        <v>1082.9557337051237</v>
+      </c>
+      <c r="M31" s="2">
         <f t="shared" si="0"/>
-        <v>2.2773999999999999E-5</v>
-      </c>
-      <c r="K31" s="22">
+        <v>6.1998833649220013E-3</v>
+      </c>
+      <c r="N31" s="2">
         <f t="shared" si="1"/>
-        <v>5.7379999999999983E-6</v>
-      </c>
-      <c r="L31" s="23">
-        <f t="shared" si="2"/>
-        <v>1082.9557337051237</v>
-      </c>
-      <c r="M31" s="2">
-        <f>$B$29*POWER($D$23/D31,3)</f>
-        <v>6.1998833649220013E-3</v>
-      </c>
-      <c r="N31" s="2">
-        <f>M31/$B$26*D31/$D$25</f>
         <v>0.53897229105745803</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K31*$B$22*EXP(-K31*$B$22-J31*$B$21/2)*$B$3*L31*$B$14*E31/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>3.4547827767327974</v>
       </c>
       <c r="Q31" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K31*$B$22*EXP(-K31*$B$22-J31*$B$21/2)*$B$3*L31*$B$16*E31/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>4.0548773577317156</v>
       </c>
       <c r="R31" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K31*$B$22*EXP(-K31*$B$22-J31*$B$21/2)*$B$3*L31*$B$18*E31/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>3.9034080495831538</v>
       </c>
       <c r="T31" s="2">
-        <f>EXP(-$B$21*J31)</f>
+        <f t="shared" si="5"/>
         <v>0.14106083891482338</v>
       </c>
       <c r="V31" s="2"/>
@@ -19693,40 +19691,40 @@
         <v>30.861999999999998</v>
       </c>
       <c r="J32" s="22">
+        <f t="shared" si="6"/>
+        <v>2.2403999999999998E-5</v>
+      </c>
+      <c r="K32" s="22">
+        <f t="shared" si="7"/>
+        <v>5.4210000000000011E-6</v>
+      </c>
+      <c r="L32" s="23">
+        <f t="shared" si="8"/>
+        <v>1116.7681239623673</v>
+      </c>
+      <c r="M32" s="2">
         <f t="shared" si="0"/>
-        <v>2.2403999999999998E-5</v>
-      </c>
-      <c r="K32" s="22">
+        <v>5.7350933090578064E-3</v>
+      </c>
+      <c r="N32" s="2">
         <f t="shared" si="1"/>
-        <v>5.4210000000000011E-6</v>
-      </c>
-      <c r="L32" s="23">
-        <f t="shared" si="2"/>
-        <v>1116.7681239623673</v>
-      </c>
-      <c r="M32" s="2">
-        <f>$B$29*POWER($D$23/D32,3)</f>
-        <v>5.7350933090578064E-3</v>
-      </c>
-      <c r="N32" s="2">
-        <f>M32/$B$26*D32/$D$25</f>
         <v>0.51168704029386536</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K32*$B$22*EXP(-K32*$B$22-J32*$B$21/2)*$B$3*L32*$B$14*E32/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>3.3374047911449751</v>
       </c>
       <c r="Q32" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K32*$B$22*EXP(-K32*$B$22-J32*$B$21/2)*$B$3*L32*$B$16*E32/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>3.9171108563870689</v>
       </c>
       <c r="R32" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K32*$B$22*EXP(-K32*$B$22-J32*$B$21/2)*$B$3*L32*$B$18*E32/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>3.7707877943031218</v>
       </c>
       <c r="T32" s="2">
-        <f>EXP(-$B$21*J32)</f>
+        <f t="shared" si="5"/>
         <v>0.14562157125054453</v>
       </c>
       <c r="V32" s="2"/>
@@ -19755,40 +19753,40 @@
         <v>30.09</v>
       </c>
       <c r="J33" s="22">
+        <f t="shared" si="6"/>
+        <v>2.2042999999999999E-5</v>
+      </c>
+      <c r="K33" s="22">
+        <f t="shared" si="7"/>
+        <v>5.1520000000000042E-6</v>
+      </c>
+      <c r="L33" s="23">
+        <f t="shared" si="8"/>
+        <v>1145.57453416149</v>
+      </c>
+      <c r="M33" s="2">
         <f t="shared" si="0"/>
-        <v>2.2042999999999999E-5</v>
-      </c>
-      <c r="K33" s="22">
+        <v>5.315625E-3</v>
+      </c>
+      <c r="N33" s="2">
         <f t="shared" si="1"/>
-        <v>5.1520000000000042E-6</v>
-      </c>
-      <c r="L33" s="23">
-        <f t="shared" si="2"/>
-        <v>1145.57453416149</v>
-      </c>
-      <c r="M33" s="2">
-        <f>$B$29*POWER($D$23/D33,3)</f>
-        <v>5.315625E-3</v>
-      </c>
-      <c r="N33" s="2">
-        <f>M33/$B$26*D33/$D$25</f>
         <v>0.48642249267935578</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K33*$B$22*EXP(-K33*$B$22-J33*$B$21/2)*$B$3*L33*$B$14*E33/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>3.226234779259304</v>
       </c>
       <c r="Q33" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K33*$B$22*EXP(-K33*$B$22-J33*$B$21/2)*$B$3*L33*$B$16*E33/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>3.7866306516431179</v>
       </c>
       <c r="R33" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K33*$B$22*EXP(-K33*$B$22-J33*$B$21/2)*$B$3*L33*$B$18*E33/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>3.6451816571562983</v>
       </c>
       <c r="T33" s="2">
-        <f>EXP(-$B$21*J33)</f>
+        <f t="shared" si="5"/>
         <v>0.15021344945786674</v>
       </c>
       <c r="V33" s="2"/>
@@ -19816,40 +19814,40 @@
         <v>29.356000000000002</v>
       </c>
       <c r="J34" s="22">
+        <f t="shared" si="6"/>
+        <v>2.1733999999999999E-5</v>
+      </c>
+      <c r="K34" s="22">
+        <f t="shared" si="7"/>
+        <v>4.8969999999999982E-6</v>
+      </c>
+      <c r="L34" s="23">
+        <f t="shared" si="8"/>
+        <v>1176.2303451092519</v>
+      </c>
+      <c r="M34" s="2">
         <f t="shared" si="0"/>
-        <v>2.1733999999999999E-5</v>
-      </c>
-      <c r="K34" s="22">
+        <v>4.9360862436702889E-3</v>
+      </c>
+      <c r="N34" s="2">
         <f t="shared" si="1"/>
-        <v>4.8969999999999982E-6</v>
-      </c>
-      <c r="L34" s="23">
-        <f t="shared" si="2"/>
-        <v>1176.2303451092519</v>
-      </c>
-      <c r="M34" s="2">
-        <f>$B$29*POWER($D$23/D34,3)</f>
-        <v>4.9360862436702889E-3</v>
-      </c>
-      <c r="N34" s="2">
-        <f>M34/$B$26*D34/$D$25</f>
         <v>0.46298393116416969</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K34*$B$22*EXP(-K34*$B$22-J34*$B$21/2)*$B$3*L34*$B$14*E34/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>3.1168763793330299</v>
       </c>
       <c r="Q34" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K34*$B$22*EXP(-K34*$B$22-J34*$B$21/2)*$B$3*L34*$B$16*E34/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>3.6582767352333052</v>
       </c>
       <c r="R34" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K34*$B$22*EXP(-K34*$B$22-J34*$B$21/2)*$B$3*L34*$B$18*E34/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>3.5216223811761607</v>
       </c>
       <c r="T34" s="2">
-        <f>EXP(-$B$21*J34)</f>
+        <f t="shared" si="5"/>
         <v>0.15425873329555234</v>
       </c>
       <c r="V34" s="2"/>
@@ -19878,40 +19876,40 @@
         <v>28.655999999999999</v>
       </c>
       <c r="J35" s="26">
+        <f t="shared" si="6"/>
+        <v>2.1447E-5</v>
+      </c>
+      <c r="K35" s="26">
+        <f t="shared" si="7"/>
+        <v>4.6710000000000032E-6</v>
+      </c>
+      <c r="L35" s="27">
+        <f t="shared" si="8"/>
+        <v>1203.1684864054794</v>
+      </c>
+      <c r="M35" s="2">
         <f t="shared" si="0"/>
-        <v>2.1447E-5</v>
-      </c>
-      <c r="K35" s="26">
+        <v>4.591836734693878E-3</v>
+      </c>
+      <c r="N35" s="2">
         <f t="shared" si="1"/>
-        <v>4.6710000000000032E-6</v>
-      </c>
-      <c r="L35" s="27">
-        <f t="shared" si="2"/>
-        <v>1203.1684864054794</v>
-      </c>
-      <c r="M35" s="2">
-        <f>$B$29*POWER($D$23/D35,3)</f>
-        <v>4.591836734693878E-3</v>
-      </c>
-      <c r="N35" s="2">
-        <f>M35/$B$26*D35/$D$25</f>
         <v>0.4411995398452207</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K35*$B$22*EXP(-K35*$B$22-J35*$B$21/2)*$B$3*L35*$B$14*E35/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>3.0089734602139231</v>
       </c>
       <c r="Q35" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K35*$B$22*EXP(-K35*$B$22-J35*$B$21/2)*$B$3*L35*$B$16*E35/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>3.5316311161466545</v>
       </c>
       <c r="R35" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K35*$B$22*EXP(-K35*$B$22-J35*$B$21/2)*$B$3*L35*$B$18*E35/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>3.3997075893404314</v>
       </c>
       <c r="T35" s="2">
-        <f>EXP(-$B$21*J35)</f>
+        <f t="shared" si="5"/>
         <v>0.1581135236249788</v>
       </c>
       <c r="V35" s="2"/>
@@ -19940,40 +19938,40 @@
         <v>27.99</v>
       </c>
       <c r="J36" s="22">
+        <f t="shared" si="6"/>
+        <v>2.1182000000000001E-5</v>
+      </c>
+      <c r="K36" s="22">
+        <f t="shared" si="7"/>
+        <v>4.4700000000000021E-6</v>
+      </c>
+      <c r="L36" s="23">
+        <f t="shared" si="8"/>
+        <v>1228.1879194630856</v>
+      </c>
+      <c r="M36" s="2">
         <f t="shared" si="0"/>
-        <v>2.1182000000000001E-5</v>
-      </c>
-      <c r="K36" s="22">
+        <v>4.2788685272994835E-3</v>
+      </c>
+      <c r="N36" s="2">
         <f t="shared" si="1"/>
-        <v>4.4700000000000021E-6</v>
-      </c>
-      <c r="L36" s="23">
-        <f t="shared" si="2"/>
-        <v>1228.1879194630856</v>
-      </c>
-      <c r="M36" s="2">
-        <f>$B$29*POWER($D$23/D36,3)</f>
-        <v>4.2788685272994835E-3</v>
-      </c>
-      <c r="N36" s="2">
-        <f>M36/$B$26*D36/$D$25</f>
         <v>0.42091724623416404</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K36*$B$22*EXP(-K36*$B$22-J36*$B$21/2)*$B$3*L36*$B$14*E36/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>2.9068356140973588</v>
       </c>
       <c r="Q36" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K36*$B$22*EXP(-K36*$B$22-J36*$B$21/2)*$B$3*L36*$B$16*E36/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>3.4117519612617819</v>
       </c>
       <c r="R36" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K36*$B$22*EXP(-K36*$B$22-J36*$B$21/2)*$B$3*L36*$B$18*E36/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>3.2843065014967778</v>
       </c>
       <c r="T36" s="2">
-        <f>EXP(-$B$21*J36)</f>
+        <f t="shared" si="5"/>
         <v>0.16175830536420244</v>
       </c>
       <c r="V36" s="2"/>
@@ -20002,40 +20000,40 @@
         <v>27.353000000000002</v>
       </c>
       <c r="J37" s="22">
+        <f t="shared" si="6"/>
+        <v>2.0935000000000002E-5</v>
+      </c>
+      <c r="K37" s="22">
+        <f t="shared" si="7"/>
+        <v>4.2929999999999994E-6</v>
+      </c>
+      <c r="L37" s="23">
+        <f t="shared" si="8"/>
+        <v>1249.475890985326</v>
+      </c>
+      <c r="M37" s="2">
         <f t="shared" si="0"/>
-        <v>2.0935000000000002E-5</v>
-      </c>
-      <c r="K37" s="22">
+        <v>3.9937077385424485E-3</v>
+      </c>
+      <c r="N37" s="2">
         <f t="shared" si="1"/>
-        <v>4.2929999999999994E-6</v>
-      </c>
-      <c r="L37" s="23">
-        <f t="shared" si="2"/>
-        <v>1249.475890985326</v>
-      </c>
-      <c r="M37" s="2">
-        <f>$B$29*POWER($D$23/D37,3)</f>
-        <v>3.9937077385424485E-3</v>
-      </c>
-      <c r="N37" s="2">
-        <f>M37/$B$26*D37/$D$25</f>
         <v>0.40200206006558326</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K37*$B$22*EXP(-K37*$B$22-J37*$B$21/2)*$B$3*L37*$B$14*E37/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>2.8076933190965057</v>
       </c>
       <c r="Q37" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K37*$B$22*EXP(-K37*$B$22-J37*$B$21/2)*$B$3*L37*$B$16*E37/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>3.2953886836919257</v>
       </c>
       <c r="R37" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K37*$B$22*EXP(-K37*$B$22-J37*$B$21/2)*$B$3*L37*$B$18*E37/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>3.1722899559221078</v>
       </c>
       <c r="T37" s="2">
-        <f>EXP(-$B$21*J37)</f>
+        <f t="shared" si="5"/>
         <v>0.16523112956888866</v>
       </c>
       <c r="V37" s="2"/>
@@ -20063,40 +20061,40 @@
         <v>26.745000000000001</v>
       </c>
       <c r="J38" s="22">
+        <f t="shared" si="6"/>
+        <v>2.0705999999999998E-5</v>
+      </c>
+      <c r="K38" s="22">
+        <f t="shared" si="7"/>
+        <v>4.1360000000000007E-6</v>
+      </c>
+      <c r="L38" s="23">
+        <f t="shared" si="8"/>
+        <v>1268.3752417794974</v>
+      </c>
+      <c r="M38" s="2">
         <f t="shared" si="0"/>
-        <v>2.0705999999999998E-5</v>
-      </c>
-      <c r="K38" s="22">
+        <v>3.7333333333333333E-3</v>
+      </c>
+      <c r="N38" s="2">
         <f t="shared" si="1"/>
-        <v>4.1360000000000007E-6</v>
-      </c>
-      <c r="L38" s="23">
-        <f t="shared" si="2"/>
-        <v>1268.3752417794974</v>
-      </c>
-      <c r="M38" s="2">
-        <f>$B$29*POWER($D$23/D38,3)</f>
-        <v>3.7333333333333333E-3</v>
-      </c>
-      <c r="N38" s="2">
-        <f>M38/$B$26*D38/$D$25</f>
         <v>0.38433382137628114</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K38*$B$22*EXP(-K38*$B$22-J38*$B$21/2)*$B$3*L38*$B$14*E38/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>2.7136058529992995</v>
       </c>
       <c r="Q38" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K38*$B$22*EXP(-K38*$B$22-J38*$B$21/2)*$B$3*L38*$B$16*E38/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>3.1849582570690655</v>
       </c>
       <c r="R38" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K38*$B$22*EXP(-K38*$B$22-J38*$B$21/2)*$B$3*L38*$B$18*E38/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>3.0659846405772053</v>
       </c>
       <c r="T38" s="2">
-        <f>EXP(-$B$21*J38)</f>
+        <f t="shared" si="5"/>
         <v>0.16851744557151532</v>
       </c>
       <c r="V38" s="2"/>
@@ -20124,40 +20122,40 @@
         <v>26.163</v>
       </c>
       <c r="J39" s="22">
+        <f t="shared" si="6"/>
+        <v>2.0492E-5</v>
+      </c>
+      <c r="K39" s="22">
+        <f t="shared" si="7"/>
+        <v>3.9990000000000002E-6</v>
+      </c>
+      <c r="L39" s="23">
+        <f t="shared" si="8"/>
+        <v>1282.8207051762947</v>
+      </c>
+      <c r="M39" s="2">
         <f t="shared" si="0"/>
-        <v>2.0492E-5</v>
-      </c>
-      <c r="K39" s="22">
+        <v>3.4951097230212871E-3</v>
+      </c>
+      <c r="N39" s="2">
         <f t="shared" si="1"/>
-        <v>3.9990000000000002E-6</v>
-      </c>
-      <c r="L39" s="23">
-        <f t="shared" si="2"/>
-        <v>1282.8207051762947</v>
-      </c>
-      <c r="M39" s="2">
-        <f>$B$29*POWER($D$23/D39,3)</f>
-        <v>3.4951097230212871E-3</v>
-      </c>
-      <c r="N39" s="2">
-        <f>M39/$B$26*D39/$D$25</f>
         <v>0.36780528747021235</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K39*$B$22*EXP(-K39*$B$22-J39*$B$21/2)*$B$3*L39*$B$14*E39/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>2.6217084739404366</v>
       </c>
       <c r="Q39" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K39*$B$22*EXP(-K39*$B$22-J39*$B$21/2)*$B$3*L39*$B$16*E39/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>3.077098334850433</v>
       </c>
       <c r="R39" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K39*$B$22*EXP(-K39*$B$22-J39*$B$21/2)*$B$3*L39*$B$18*E39/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>2.9621538088474044</v>
       </c>
       <c r="T39" s="2">
-        <f>EXP(-$B$21*J39)</f>
+        <f t="shared" si="5"/>
         <v>0.17164755556321912</v>
       </c>
       <c r="V39" s="2"/>
@@ -20186,40 +20184,40 @@
         <v>25.606000000000002</v>
       </c>
       <c r="J40" s="22">
+        <f t="shared" si="6"/>
+        <v>2.0293E-5</v>
+      </c>
+      <c r="K40" s="22">
+        <f t="shared" si="7"/>
+        <v>3.8780000000000008E-6</v>
+      </c>
+      <c r="L40" s="23">
+        <f t="shared" si="8"/>
+        <v>1294.9974213512132</v>
+      </c>
+      <c r="M40" s="2">
         <f t="shared" si="0"/>
-        <v>2.0293E-5</v>
-      </c>
-      <c r="K40" s="22">
+        <v>3.2767305895610803E-3</v>
+      </c>
+      <c r="N40" s="2">
         <f t="shared" si="1"/>
-        <v>3.8780000000000008E-6</v>
-      </c>
-      <c r="L40" s="23">
-        <f t="shared" si="2"/>
-        <v>1294.9974213512132</v>
-      </c>
-      <c r="M40" s="2">
-        <f>$B$29*POWER($D$23/D40,3)</f>
-        <v>3.2767305895610803E-3</v>
-      </c>
-      <c r="N40" s="2">
-        <f>M40/$B$26*D40/$D$25</f>
         <v>0.35232050171433649</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K40*$B$22*EXP(-K40*$B$22-J40*$B$21/2)*$B$3*L40*$B$14*E40/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>2.5350277681213105</v>
       </c>
       <c r="Q40" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K40*$B$22*EXP(-K40*$B$22-J40*$B$21/2)*$B$3*L40*$B$16*E40/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>2.9753612202204436</v>
       </c>
       <c r="R40" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K40*$B$22*EXP(-K40*$B$22-J40*$B$21/2)*$B$3*L40*$B$18*E40/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>2.8642170681884425</v>
       </c>
       <c r="T40" s="2">
-        <f>EXP(-$B$21*J40)</f>
+        <f t="shared" si="5"/>
         <v>0.17461041268216057</v>
       </c>
       <c r="V40" s="2"/>
@@ -20248,40 +20246,40 @@
         <v>25.073</v>
       </c>
       <c r="J41" s="22">
+        <f t="shared" si="6"/>
+        <v>2.0106999999999999E-5</v>
+      </c>
+      <c r="K41" s="22">
+        <f t="shared" si="7"/>
+        <v>3.7739999999999998E-6</v>
+      </c>
+      <c r="L41" s="23">
+        <f t="shared" si="8"/>
+        <v>1303.1266560678323</v>
+      </c>
+      <c r="M41" s="2">
         <f t="shared" si="0"/>
-        <v>2.0106999999999999E-5</v>
-      </c>
-      <c r="K41" s="22">
+        <v>3.0761718749999999E-3</v>
+      </c>
+      <c r="N41" s="2">
         <f t="shared" si="1"/>
-        <v>3.7739999999999998E-6</v>
-      </c>
-      <c r="L41" s="23">
-        <f t="shared" si="2"/>
-        <v>1303.1266560678323</v>
-      </c>
-      <c r="M41" s="2">
-        <f>$B$29*POWER($D$23/D41,3)</f>
-        <v>3.0761718749999999E-3</v>
-      </c>
-      <c r="N41" s="2">
-        <f>M41/$B$26*D41/$D$25</f>
         <v>0.33779339769399708</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K41*$B$22*EXP(-K41*$B$22-J41*$B$21/2)*$B$3*L41*$B$14*E41/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>2.4516048838580531</v>
       </c>
       <c r="Q41" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K41*$B$22*EXP(-K41*$B$22-J41*$B$21/2)*$B$3*L41*$B$16*E41/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>2.8774478096309473</v>
       </c>
       <c r="R41" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K41*$B$22*EXP(-K41*$B$22-J41*$B$21/2)*$B$3*L41*$B$18*E41/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>2.7699611977048582</v>
       </c>
       <c r="T41" s="2">
-        <f>EXP(-$B$21*J41)</f>
+        <f t="shared" si="5"/>
         <v>0.17742593939176257</v>
       </c>
       <c r="V41" s="2"/>
@@ -20310,40 +20308,40 @@
         <v>24.561</v>
       </c>
       <c r="J42" s="22">
+        <f t="shared" si="6"/>
+        <v>1.9933E-5</v>
+      </c>
+      <c r="K42" s="22">
+        <f t="shared" si="7"/>
+        <v>3.6839999999999985E-6</v>
+      </c>
+      <c r="L42" s="23">
+        <f t="shared" si="8"/>
+        <v>1307.8175895765471</v>
+      </c>
+      <c r="M42" s="2">
         <f t="shared" si="0"/>
-        <v>1.9933E-5</v>
-      </c>
-      <c r="K42" s="22">
+        <v>2.8916522877372526E-3</v>
+      </c>
+      <c r="N42" s="2">
         <f t="shared" si="1"/>
-        <v>3.6839999999999985E-6</v>
-      </c>
-      <c r="L42" s="23">
-        <f t="shared" si="2"/>
-        <v>1307.8175895765471</v>
-      </c>
-      <c r="M42" s="2">
-        <f>$B$29*POWER($D$23/D42,3)</f>
-        <v>2.8916522877372526E-3</v>
-      </c>
-      <c r="N42" s="2">
-        <f>M42/$B$26*D42/$D$25</f>
         <v>0.32414660070261114</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K42*$B$22*EXP(-K42*$B$22-J42*$B$21/2)*$B$3*L42*$B$14*E42/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>2.3714759806171939</v>
       </c>
       <c r="Q42" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K42*$B$22*EXP(-K42*$B$22-J42*$B$21/2)*$B$3*L42*$B$16*E42/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>2.7834005434353846</v>
       </c>
       <c r="R42" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K42*$B$22*EXP(-K42*$B$22-J42*$B$21/2)*$B$3*L42*$B$18*E42/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>2.6794270523973398</v>
       </c>
       <c r="T42" s="2">
-        <f>EXP(-$B$21*J42)</f>
+        <f t="shared" si="5"/>
         <v>0.18010090532899628</v>
       </c>
       <c r="V42" s="2"/>
@@ -20372,40 +20370,40 @@
         <v>24.068999999999999</v>
       </c>
       <c r="J43" s="22">
+        <f t="shared" si="6"/>
+        <v>1.9721E-5</v>
+      </c>
+      <c r="K43" s="22">
+        <f t="shared" si="7"/>
+        <v>3.5040000000000015E-6</v>
+      </c>
+      <c r="L43" s="23">
+        <f t="shared" si="8"/>
+        <v>1347.0319634703187</v>
+      </c>
+      <c r="M43" s="2">
         <f t="shared" si="0"/>
-        <v>1.9721E-5</v>
-      </c>
-      <c r="K43" s="22">
+        <v>2.7215999999999998E-3</v>
+      </c>
+      <c r="N43" s="2">
         <f t="shared" si="1"/>
-        <v>3.5040000000000015E-6</v>
-      </c>
-      <c r="L43" s="23">
-        <f t="shared" si="2"/>
-        <v>1347.0319634703187</v>
-      </c>
-      <c r="M43" s="2">
-        <f>$B$29*POWER($D$23/D43,3)</f>
-        <v>2.7215999999999998E-3</v>
-      </c>
-      <c r="N43" s="2">
-        <f>M43/$B$26*D43/$D$25</f>
         <v>0.31131039531478771</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K43*$B$22*EXP(-K43*$B$22-J43*$B$21/2)*$B$3*L43*$B$14*E43/(POWER($B$6,2)*$B$5*2*SQRT(PI()))</f>
+        <f t="shared" si="2"/>
         <v>2.299693207560928</v>
       </c>
       <c r="Q43" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K43*$B$22*EXP(-K43*$B$22-J43*$B$21/2)*$B$3*L43*$B$16*E43/(POWER($B$8,2)*$B$7*2*SQRT(PI()))</f>
+        <f t="shared" si="3"/>
         <v>2.6991491273691297</v>
       </c>
       <c r="R43" s="24">
-        <f>1/SQRT(2*PI()*EXP(1))*K43*$B$22*EXP(-K43*$B$22-J43*$B$21/2)*$B$3*L43*$B$18*E43/(POWER($B$10,2)*$B$9*2*SQRT(PI()))</f>
+        <f t="shared" si="4"/>
         <v>2.598322834772921</v>
       </c>
       <c r="T43" s="2">
-        <f>EXP(-$B$21*J43)</f>
+        <f t="shared" si="5"/>
         <v>0.18341462107668455</v>
       </c>
       <c r="V43" s="2"/>
